--- a/历届战报/2024年/24.8.24/8.24账号.xlsx
+++ b/历届战报/2024年/24.8.24/8.24账号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Master Duel/栗子杯/LIZI-CUP/历届战报/2024年/24.8.24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8389098A-B91B-F24C-829B-3DB12595DD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654657E9-A3C0-8E4F-B450-CEEC9E7C8969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="7200" windowWidth="18640" windowHeight="16100" xr2:uid="{388D04AE-0CEB-804B-9EA3-D1A49B219EE4}"/>
   </bookViews>
@@ -164,9 +164,6 @@
     <t>幻幻幻龙</t>
   </si>
   <si>
-    <t>科乐美账号:g086a48104,密码:o1c8e20a</t>
-  </si>
-  <si>
     <t>密特拉</t>
   </si>
   <si>
@@ -263,9 +260,6 @@
     <t>科乐美账号:a800293892,密码:q49ac5bd</t>
   </si>
   <si>
-    <t>科乐美账号:d643576891,密码:fe43da82</t>
-  </si>
-  <si>
     <t>幻想之命</t>
   </si>
   <si>
@@ -318,6 +312,12 @@
   </si>
   <si>
     <t>补*卡号：dlaot94447----mzyj11222L----zd732078@stcail42.cn----79427238</t>
+  </si>
+  <si>
+    <t>科乐美账号:g086a48104,密码:o1c8e20a（废）</t>
+  </si>
+  <si>
+    <t>冠军奖励刷新*科乐美账号:d643576891,密码:fe43da82</t>
   </si>
 </sst>
 </file>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AF7E55-76C9-9949-96D8-F0BE91193A9B}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="82" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -818,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17">
@@ -937,199 +937,199 @@
         <v>41</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17">
       <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17">
       <c r="A20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17">
       <c r="A21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="C21" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17">
       <c r="A22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="34">
       <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17">
       <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17">
       <c r="A25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17">
       <c r="A26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="C26" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17">
       <c r="A27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="C27" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17">
       <c r="A28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="C28" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17">
       <c r="A29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17">
       <c r="A30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="C30" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17">
       <c r="A31" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17">
       <c r="A32" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17">
       <c r="A33" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="19">
       <c r="A34" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="19">
       <c r="A35" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17">
       <c r="A36" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17">
       <c r="A37" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="19">
       <c r="A38" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="19">
       <c r="A39" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
